--- a/TalkTree_Edit/src-tauri/resources/default.xlsx
+++ b/TalkTree_Edit/src-tauri/resources/default.xlsx
@@ -23097,10 +23097,10 @@
       <c r="B26" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>41</v>
       </c>
+      <c r="D26" s="18"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -23130,10 +23130,10 @@
       <c r="B27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>4</v>
       </c>
+      <c r="D27" s="19"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -23161,7 +23161,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -23221,10 +23221,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="D30" s="10"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
